--- a/jzsc/Configs/采集结果.xlsx
+++ b/jzsc/Configs/采集结果.xlsx
@@ -27,24 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>序号</t>
+    <t>项目编号</t>
   </si>
   <si>
-    <t>标题</t>
+    <t>项目名称</t>
   </si>
   <si>
-    <t>网址</t>
+    <t>项目类别</t>
   </si>
   <si>
-    <t>用户ID</t>
+    <t>数据等级</t>
   </si>
   <si>
-    <t>昵称</t>
+    <t>施工许可证编号</t>
   </si>
   <si>
-    <t>粉丝数</t>
+    <t>实际造价（万元）</t>
+  </si>
+  <si>
+    <t>实际开工日期</t>
+  </si>
+  <si>
+    <t>竣工验收备案日期</t>
+  </si>
+  <si>
+    <t>数据来源</t>
+  </si>
+  <si>
+    <t>实际建设规模</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -67,10 +82,9 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
@@ -584,14 +598,20 @@
     <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -941,257 +961,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="3"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
+      <c r="A2" s="5"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:1">
-      <c r="A3" s="3"/>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" ht="14.25" spans="1:1">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:1">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:1">
-      <c r="A9" s="3"/>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:1">
-      <c r="A13" s="3"/>
+      <c r="A13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" ht="14.25" spans="1:1">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" ht="14.25" spans="1:1">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5"/>
     </row>
     <row r="17" ht="14.25" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="3"/>
+      <c r="A18" s="5"/>
     </row>
     <row r="19" ht="14.25" spans="1:1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="5"/>
     </row>
     <row r="20" ht="14.25" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="5"/>
     </row>
     <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="3"/>
+      <c r="A21" s="5"/>
     </row>
     <row r="22" ht="14.25" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="5"/>
     </row>
     <row r="23" ht="14.25" spans="1:1">
-      <c r="A23" s="3"/>
+      <c r="A23" s="5"/>
     </row>
     <row r="24" ht="14.25" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="5"/>
     </row>
     <row r="25" ht="14.25" spans="1:1">
-      <c r="A25" s="3"/>
+      <c r="A25" s="5"/>
     </row>
     <row r="26" ht="14.25" spans="1:1">
-      <c r="A26" s="3"/>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" ht="14.25" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" ht="14.25" spans="1:1">
-      <c r="A28" s="3"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" ht="14.25" spans="1:1">
-      <c r="A29" s="3"/>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" ht="14.25" spans="1:1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" ht="14.25" spans="1:1">
-      <c r="A31" s="3"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" ht="14.25" spans="1:1">
-      <c r="A32" s="3"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" ht="14.25" spans="1:1">
-      <c r="A33" s="3"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" ht="14.25" spans="1:1">
-      <c r="A34" s="3"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" ht="14.25" spans="1:1">
-      <c r="A35" s="3"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" ht="14.25" spans="1:1">
-      <c r="A36" s="3"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" ht="14.25" spans="1:1">
-      <c r="A37" s="3"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" ht="14.25" spans="1:1">
-      <c r="A38" s="3"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" ht="14.25" spans="1:1">
-      <c r="A39" s="3"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" ht="14.25" spans="1:1">
-      <c r="A40" s="3"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" ht="14.25" spans="1:1">
-      <c r="A41" s="3"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" ht="14.25" spans="1:1">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" ht="14.25" spans="1:1">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" ht="14.25" spans="1:1">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" ht="14.25" spans="1:1">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" ht="14.25" spans="1:1">
-      <c r="A46" s="3"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" ht="14.25" spans="1:1">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" ht="14.25" spans="1:1">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" ht="14.25" spans="1:1">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" ht="14.25" spans="1:1">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" ht="14.25" spans="1:1">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" ht="14.25" spans="1:1">
-      <c r="A52" s="3"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" ht="14.25" spans="1:1">
-      <c r="A53" s="3"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" ht="14.25" spans="1:1">
-      <c r="A54" s="3"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" ht="14.25" spans="1:1">
-      <c r="A55" s="3"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" ht="14.25" spans="1:1">
-      <c r="A56" s="3"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" ht="14.25" spans="1:1">
-      <c r="A57" s="3"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" ht="14.25" spans="1:1">
-      <c r="A58" s="3"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" ht="14.25" spans="1:1">
-      <c r="A59" s="3"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" ht="14.25" spans="1:1">
-      <c r="A60" s="3"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" ht="14.25" spans="1:1">
-      <c r="A61" s="3"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" ht="14.25" spans="1:1">
-      <c r="A62" s="3"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" ht="14.25" spans="1:1">
-      <c r="A63" s="3"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" ht="14.25" spans="1:1">
-      <c r="A64" s="3"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" ht="14.25" spans="1:1">
-      <c r="A65" s="3"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" ht="14.25" spans="1:1">
-      <c r="A66" s="3"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" ht="14.25" spans="1:1">
-      <c r="A67" s="3"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" ht="14.25" spans="1:1">
-      <c r="A68" s="3"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" ht="14.25" spans="1:1">
-      <c r="A69" s="3"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" ht="14.25" spans="1:1">
-      <c r="A70" s="3"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" ht="14.25" spans="1:1">
-      <c r="A71" s="3"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" ht="14.25" spans="1:1">
-      <c r="A72" s="3"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" ht="14.25" spans="1:1">
-      <c r="A73" s="3"/>
+      <c r="A73" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">

--- a/jzsc/Configs/采集结果.xlsx
+++ b/jzsc/Configs/采集结果.xlsx
@@ -963,8 +963,8 @@
   <sheetPr/>
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1017,9 +1017,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="5"/>
-      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="5"/>

--- a/jzsc/Configs/采集结果.xlsx
+++ b/jzsc/Configs/采集结果.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>查询ID</t>
+  </si>
   <si>
     <t>项目编号</t>
   </si>
@@ -677,19 +680,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -961,32 +964,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="36.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1016,655 +1020,1162 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:1">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="5"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:1">
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="5"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:1">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="5"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:1">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
       <c r="A5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:1">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
       <c r="A6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:1">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:2">
       <c r="A7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:1">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
       <c r="A8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:1">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
       <c r="A9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:1">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
       <c r="A10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:1">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
       <c r="A11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:1">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
       <c r="A12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:1">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
       <c r="A13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:1">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
       <c r="A14" s="5"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:1">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:2">
       <c r="A15" s="5"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:1">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
       <c r="A16" s="5"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:1">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
       <c r="A17" s="5"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:1">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:2">
       <c r="A18" s="5"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:1">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:2">
       <c r="A19" s="5"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:1">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:2">
       <c r="A20" s="5"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:1">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
       <c r="A21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:1">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:1">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
       <c r="A23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:1">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="5"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:1">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="5"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:1">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:2">
       <c r="A26" s="5"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:1">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
       <c r="A27" s="5"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:1">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
       <c r="A28" s="5"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:1">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
       <c r="A29" s="5"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:1">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:2">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:1">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
       <c r="A31" s="5"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:1">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
       <c r="A32" s="5"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:1">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:2">
       <c r="A33" s="5"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:1">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:2">
       <c r="A34" s="5"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:1">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
       <c r="A35" s="5"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:1">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:2">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:1">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:2">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:1">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:2">
       <c r="A38" s="5"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:1">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:2">
       <c r="A39" s="5"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:1">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:2">
       <c r="A40" s="5"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:1">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:2">
       <c r="A41" s="5"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:1">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:2">
       <c r="A42" s="5"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:1">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:2">
       <c r="A43" s="5"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:1">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:2">
       <c r="A44" s="5"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:1">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:2">
       <c r="A45" s="5"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:1">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:2">
       <c r="A46" s="5"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:1">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:2">
       <c r="A47" s="5"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:1">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:2">
       <c r="A48" s="5"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:1">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:2">
       <c r="A49" s="5"/>
-    </row>
-    <row r="50" ht="14.25" spans="1:1">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:2">
       <c r="A50" s="5"/>
-    </row>
-    <row r="51" ht="14.25" spans="1:1">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" ht="14.25" spans="1:2">
       <c r="A51" s="5"/>
-    </row>
-    <row r="52" ht="14.25" spans="1:1">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" ht="14.25" spans="1:2">
       <c r="A52" s="5"/>
-    </row>
-    <row r="53" ht="14.25" spans="1:1">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" ht="14.25" spans="1:2">
       <c r="A53" s="5"/>
-    </row>
-    <row r="54" ht="14.25" spans="1:1">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" ht="14.25" spans="1:2">
       <c r="A54" s="5"/>
-    </row>
-    <row r="55" ht="14.25" spans="1:1">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" ht="14.25" spans="1:2">
       <c r="A55" s="5"/>
-    </row>
-    <row r="56" ht="14.25" spans="1:1">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" ht="14.25" spans="1:2">
       <c r="A56" s="5"/>
-    </row>
-    <row r="57" ht="14.25" spans="1:1">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" ht="14.25" spans="1:2">
       <c r="A57" s="5"/>
-    </row>
-    <row r="58" ht="14.25" spans="1:1">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" ht="14.25" spans="1:2">
       <c r="A58" s="5"/>
-    </row>
-    <row r="59" ht="14.25" spans="1:1">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" ht="14.25" spans="1:2">
       <c r="A59" s="5"/>
-    </row>
-    <row r="60" ht="14.25" spans="1:1">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" ht="14.25" spans="1:2">
       <c r="A60" s="5"/>
-    </row>
-    <row r="61" ht="14.25" spans="1:1">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" ht="14.25" spans="1:2">
       <c r="A61" s="5"/>
-    </row>
-    <row r="62" ht="14.25" spans="1:1">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" ht="14.25" spans="1:2">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" ht="14.25" spans="1:1">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" ht="14.25" spans="1:2">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" ht="14.25" spans="1:1">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" ht="14.25" spans="1:2">
       <c r="A64" s="5"/>
-    </row>
-    <row r="65" ht="14.25" spans="1:1">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" ht="14.25" spans="1:2">
       <c r="A65" s="5"/>
-    </row>
-    <row r="66" ht="14.25" spans="1:1">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" ht="14.25" spans="1:2">
       <c r="A66" s="5"/>
-    </row>
-    <row r="67" ht="14.25" spans="1:1">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" ht="14.25" spans="1:2">
       <c r="A67" s="5"/>
-    </row>
-    <row r="68" ht="14.25" spans="1:1">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" ht="14.25" spans="1:2">
       <c r="A68" s="5"/>
-    </row>
-    <row r="69" ht="14.25" spans="1:1">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" ht="14.25" spans="1:2">
       <c r="A69" s="5"/>
-    </row>
-    <row r="70" ht="14.25" spans="1:1">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:2">
       <c r="A70" s="5"/>
-    </row>
-    <row r="71" ht="14.25" spans="1:1">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:2">
       <c r="A71" s="5"/>
-    </row>
-    <row r="72" ht="14.25" spans="1:1">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:2">
       <c r="A72" s="5"/>
-    </row>
-    <row r="73" ht="14.25" spans="1:1">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:2">
       <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="288"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="1" priority="381"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="465"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="549"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="633"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="287"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="380"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="464"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="548"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="632"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="286"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="1" priority="379"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="463"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="547"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="631"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="duplicateValues" dxfId="1" priority="378"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="462"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="546"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="630"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="284"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="duplicateValues" dxfId="1" priority="377"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="461"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="545"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="629"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="283"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="1" priority="376"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="460"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="544"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="628"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="282"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="duplicateValues" dxfId="1" priority="375"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="459"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="543"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="627"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="0" priority="281"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="1" priority="374"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="458"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="542"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="626"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="0" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="duplicateValues" dxfId="1" priority="373"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="457"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="541"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="625"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="0" priority="279"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="duplicateValues" dxfId="1" priority="372"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="540"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="624"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="278"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="1" priority="371"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="455"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="539"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="623"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="0" priority="277"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="duplicateValues" dxfId="1" priority="370"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="454"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="538"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="622"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="276"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="1" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="453"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="537"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="621"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="275"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="duplicateValues" dxfId="1" priority="368"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="452"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="536"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="620"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="0" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="1" priority="367"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="451"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="535"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="619"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="273"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="duplicateValues" dxfId="1" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="450"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="534"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="618"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="0" priority="272"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="200"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="1" priority="365"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="449"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="533"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="617"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="271"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="duplicateValues" dxfId="1" priority="364"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="448"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="532"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="616"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="0" priority="270"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="1" priority="363"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="447"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="531"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="615"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="269"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="duplicateValues" dxfId="1" priority="362"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="446"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="530"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="614"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="0" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="1" priority="361"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="445"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="529"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="613"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="0" priority="267"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="duplicateValues" dxfId="1" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="444"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="528"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="612"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="266"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="1" priority="359"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="443"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="527"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="611"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="0" priority="265"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="duplicateValues" dxfId="1" priority="358"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="442"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="526"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="610"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="duplicateValues" dxfId="1" priority="357"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="441"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="525"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="609"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="263"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="191"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="duplicateValues" dxfId="1" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="524"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="608"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="1" priority="355"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="439"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="523"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="607"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
     <cfRule type="duplicateValues" dxfId="0" priority="261"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="1" priority="354"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="438"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="522"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="606"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="1" priority="353"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="437"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="521"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="605"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="1" priority="352"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="436"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="520"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="604"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="1" priority="351"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="435"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="519"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="603"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="1" priority="350"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="434"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="518"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="duplicateValues" dxfId="1" priority="349"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="433"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="517"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="601"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="1" priority="348"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="432"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="516"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="600"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="duplicateValues" dxfId="1" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="431"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="515"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="599"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="1" priority="346"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="430"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="514"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="598"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="1" priority="345"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="260"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="429"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="513"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="597"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
     <cfRule type="duplicateValues" dxfId="1" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="259"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="428"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="512"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="596"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="duplicateValues" dxfId="1" priority="343"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="427"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="511"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="595"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41">
     <cfRule type="duplicateValues" dxfId="1" priority="342"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="257"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="510"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="594"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="1" priority="341"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="256"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="425"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="509"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
     <cfRule type="duplicateValues" dxfId="1" priority="340"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="255"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="424"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="508"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="592"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="1" priority="339"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="254"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="423"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="507"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="591"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="173"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="duplicateValues" dxfId="1" priority="338"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="253"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="422"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="506"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="590"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="1" priority="337"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="252"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="421"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="505"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="589"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="1" priority="336"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="251"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="420"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="504"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="588"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48">
     <cfRule type="duplicateValues" dxfId="1" priority="335"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="250"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="419"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="503"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="587"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
     <cfRule type="duplicateValues" dxfId="1" priority="334"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="249"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="418"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="502"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="586"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="0" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="1" priority="333"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="248"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="417"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="585"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
     <cfRule type="duplicateValues" dxfId="1" priority="332"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="247"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="416"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="500"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="584"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52">
     <cfRule type="duplicateValues" dxfId="1" priority="331"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="415"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="499"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="583"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="1" priority="330"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="245"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="414"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="498"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="582"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="duplicateValues" dxfId="1" priority="329"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="413"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="497"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="581"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55">
     <cfRule type="duplicateValues" dxfId="1" priority="328"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="412"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="496"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="580"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
     <cfRule type="duplicateValues" dxfId="1" priority="327"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="411"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="495"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="579"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
     <cfRule type="duplicateValues" dxfId="1" priority="326"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="410"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="494"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="578"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
     <cfRule type="duplicateValues" dxfId="1" priority="325"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="409"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="493"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="577"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
     <cfRule type="duplicateValues" dxfId="1" priority="324"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="408"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="492"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="576"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60">
     <cfRule type="duplicateValues" dxfId="1" priority="323"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="407"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="491"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61">
     <cfRule type="duplicateValues" dxfId="1" priority="322"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="406"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="490"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="574"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
     <cfRule type="duplicateValues" dxfId="1" priority="321"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="405"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="489"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="573"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="duplicateValues" dxfId="1" priority="320"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="404"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="488"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="572"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B64">
     <cfRule type="duplicateValues" dxfId="1" priority="319"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="403"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="487"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="571"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
     <cfRule type="duplicateValues" dxfId="1" priority="318"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="402"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="486"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="570"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66">
     <cfRule type="duplicateValues" dxfId="1" priority="317"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="401"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="485"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="569"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67">
     <cfRule type="duplicateValues" dxfId="1" priority="316"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="400"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="484"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="568"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
     <cfRule type="duplicateValues" dxfId="1" priority="315"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="146"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="399"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="483"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="567"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
     <cfRule type="duplicateValues" dxfId="1" priority="314"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="398"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="482"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="566"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
     <cfRule type="duplicateValues" dxfId="1" priority="313"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="144"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="397"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="481"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="565"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71">
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71">
     <cfRule type="duplicateValues" dxfId="1" priority="312"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="396"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="480"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="564"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B72">
     <cfRule type="duplicateValues" dxfId="1" priority="311"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="395"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="479"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="563"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73">
     <cfRule type="duplicateValues" dxfId="1" priority="310"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="309"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="140"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="308"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="307"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="138"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="306"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="305"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="304"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="303"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="302"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="301"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="300"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="299"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="298"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="297"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="212"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="296"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="295"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="210"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="294"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="293"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="208"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="292"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="207"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="291"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="290"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="205"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="289"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="204"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="288"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="203"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="202"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="286"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="201"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="285"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="200"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="284"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="199"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="283"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="282"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="281"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="280"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="279"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="278"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="277"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="276"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="275"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="274"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="394"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="478"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="562"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
